--- a/Rnzss/RnzssWeb/RfqFiles/RFQ_RZRFQ10258.xlsx
+++ b/Rnzss/RnzssWeb/RfqFiles/RFQ_RZRFQ10258.xlsx
@@ -1328,7 +1328,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="62" t="str">
-        <x:v>test part 1</x:v>
+        <x:v>test part 1  Test entry. Please do not delete bllla  asdfj;lasjf ;laj l;ajksdf   kjdfh asklh   hasjkldfh asjklh lh  aklsjdfh kljh   aslkh asdh asd vert kibg jpart name</x:v>
       </x:c>
       <x:c r="D22" s="63"/>
       <x:c r="E22" s="66" t="str">
